--- a/基于Android的智慧移动课堂学习系统/数据字典/班课数据字典v1.2.xlsx
+++ b/基于Android的智慧移动课堂学习系统/数据字典/班课数据字典v1.2.xlsx
@@ -1,251 +1,323 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字段说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码说明</t>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>university</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>青岛大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据科学与软件工程学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if_show_closed_classes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否显示已关闭班课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if_allow_to_join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否允许加入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班课已结束</t>
+  </si>
+  <si>
+    <t>班课已删除</t>
+  </si>
+  <si>
+    <t>删除后不删除班课的原因是保留资源库</t>
+  </si>
+  <si>
+    <t>material_type</t>
+  </si>
+  <si>
+    <t>教学资源类型</t>
   </si>
   <si>
     <t>if_repository</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否存放资源库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if_publish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否发布资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学资源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_type</t>
   </si>
   <si>
     <t>答案类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>填空/简答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>check_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何开放答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提交后开放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结束后开放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>批阅后开放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attendance_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到状态</t>
   </si>
   <si>
     <t>已签到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班课已删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除后不删除班课的原因是保留资源库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未签到</t>
   </si>
   <si>
     <t>if_open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否开放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班课已结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未签到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,18 +326,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -325,54 +577,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -383,14 +913,12 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4D9AF628-C015-4D8C-83E6-2DD38B333F11}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -398,9 +926,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -484,7 +1009,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -658,368 +1183,360 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="26.2166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.2166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5583333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="32.4" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="3:4">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3">
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>